--- a/biology/Zoologie/Heterobranchia/Heterobranchia.xlsx
+++ b/biology/Zoologie/Heterobranchia/Heterobranchia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heterobranchia (du grec ancien ἕτερος / héteros, « autre », « contraire », « opposé », et βράγχια / brágkhia, « branchies », « ouïes ») sont une sous-classe de gastéropodes de l'embranchement des mollusques. Les différentes espèces de ce groupe vivent dans les trois milieux : sur terre, en eau douce ou en mer.
 </t>
@@ -511,7 +523,9 @@
           <t>Diversité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les trois subdivisions informelles de ce clade sont assez diverses :
 Les hétérobranches basaux comprennent des espèces marines et d'eau douce.
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,10 +586,12 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jörger et al. (2010)[2] ont redéfini les grands groupes au sein des Heterobranchia : ils ont créé les nouveaux clades Euopisthobranchia et Panpulmonata[2].
-Un cladogramme montrant les relations phylogéniques de Heterobranchia comme proposé par Jörger et al. (2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jörger et al. (2010) ont redéfini les grands groupes au sein des Heterobranchia : ils ont créé les nouveaux clades Euopisthobranchia et Panpulmonata.
+Un cladogramme montrant les relations phylogéniques de Heterobranchia comme proposé par Jörger et al. (2010) :
 </t>
         </is>
       </c>
